--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354099C8-4653-4A4F-A946-B47B3EF5FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3EB21B-1C3E-4601-BDCF-ADC02E0CDC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
-  <si>
-    <t>date début</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>test</t>
   </si>
@@ -105,16 +102,64 @@
   </si>
   <si>
     <t>langue, jeux, emprunts</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Langue, No-type, emprunts, 5</t>
+  </si>
+  <si>
+    <t>vérification que le cache se vide correctement</t>
+  </si>
+  <si>
+    <t>vérification qu'un document est correctement ajouté au cache</t>
+  </si>
+  <si>
+    <t>nombre d'exemplaire</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>nombre d'embrunts</t>
+  </si>
+  <si>
+    <t>vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null, no_type, emprunts, 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">langue, null, emprunts, 1 </t>
+  </si>
+  <si>
+    <t>langue, no_type, null, 1</t>
+  </si>
+  <si>
+    <t>langue, no_type, emprunts, 0</t>
+  </si>
+  <si>
+    <t>en cours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,7 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -207,76 +252,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFBFFDF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF880AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AF4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA6EEFC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AF4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA6EEFC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA6EEFC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -604,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,191 +593,366 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="terminé">
       <formula>NOT(ISERROR(SEARCH("terminé",D1)))</formula>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3EB21B-1C3E-4601-BDCF-ADC02E0CDC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0AB66F-4BFF-4538-B332-758670DED050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>test</t>
   </si>
@@ -144,6 +144,51 @@
   </si>
   <si>
     <t>en cours</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>lancer le programme et se charge jusqu'au bout</t>
+  </si>
+  <si>
+    <t>dans les bonnes conditions</t>
+  </si>
+  <si>
+    <t>si internet coupe</t>
+  </si>
+  <si>
+    <t>sélection de la catégorie</t>
+  </si>
+  <si>
+    <t>rien</t>
+  </si>
+  <si>
+    <t>offre</t>
+  </si>
+  <si>
+    <t>demande</t>
+  </si>
+  <si>
+    <t>comparaison</t>
+  </si>
+  <si>
+    <t>sélection des paramètres dans l'offre</t>
+  </si>
+  <si>
+    <t>voir pour que la fenêtre s'affiche à la bonne taille</t>
+  </si>
+  <si>
+    <t>en ne touchant rien</t>
+  </si>
+  <si>
+    <t>en ne cochant que le type de graph</t>
+  </si>
+  <si>
+    <t>Echec</t>
+  </si>
+  <si>
+    <t>les paramètres par défaut des menus déroulants doivent s'afficher</t>
   </si>
 </sst>
 </file>
@@ -579,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -836,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -850,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>28</v>
       </c>
@@ -864,7 +909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -878,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -892,7 +937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>15</v>
       </c>
@@ -909,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>32</v>
       </c>
@@ -923,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>33</v>
       </c>
@@ -937,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>34</v>
       </c>
@@ -949,6 +994,108 @@
       </c>
       <c r="F25" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0AB66F-4BFF-4538-B332-758670DED050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C81B05-8B62-4EF2-A183-3B2A39DD4C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>test</t>
   </si>
@@ -155,9 +155,6 @@
     <t>dans les bonnes conditions</t>
   </si>
   <si>
-    <t>si internet coupe</t>
-  </si>
-  <si>
     <t>sélection de la catégorie</t>
   </si>
   <si>
@@ -189,6 +186,48 @@
   </si>
   <si>
     <t>les paramètres par défaut des menus déroulants doivent s'afficher</t>
+  </si>
+  <si>
+    <t>si internet coupe à 10%</t>
+  </si>
+  <si>
+    <t>si internet coupe à 80%</t>
+  </si>
+  <si>
+    <t>voir si on fait la précision de on recharge pas tout, on affiche juste avec un disclaimer</t>
+  </si>
+  <si>
+    <t>en ne complétant que les paramètres</t>
+  </si>
+  <si>
+    <t>camembert, film, rien touché d'autre</t>
+  </si>
+  <si>
+    <t>camembert, film, auteur, pas touché</t>
+  </si>
+  <si>
+    <t>camembert, pas touché, auteur, rien touché d'autre</t>
+  </si>
+  <si>
+    <t>camembert, film, auteur, 5</t>
+  </si>
+  <si>
+    <t>histogramme, BD, langue, 10</t>
+  </si>
+  <si>
+    <t>pas d'affichage du nombre pour le français, difficulté de lecture des chiffres pour les grands nombres car se collent</t>
+  </si>
+  <si>
+    <t>sélection des paramètres dans la demande</t>
+  </si>
+  <si>
+    <t>histogramme, BD, type_de_doc, 20</t>
+  </si>
+  <si>
+    <t>histogramme, BD, langue, 20</t>
+  </si>
+  <si>
+    <t>n'en affiche que 5 car il y en a que 5. peut être mettre un message pour prévenir l'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -624,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,87 +1059,228 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
         <v>48</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
         <v>49</v>
       </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" t="s">
-        <v>50</v>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D30 D32:D1048576">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="terminé">
       <formula>NOT(ISERROR(SEARCH("terminé",D1)))</formula>
     </cfRule>
@@ -1111,7 +1291,7 @@
       <formula>NOT(ISERROR(SEARCH("à faire",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E1:E30 E32:E1048576">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Réussite">
       <formula>NOT(ISERROR(SEARCH("Réussite",E1)))</formula>
     </cfRule>
@@ -1119,7 +1299,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F30 F32:F1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>
@@ -1134,13 +1314,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D9:D1048576" xr:uid="{BC3D5C91-F70A-4D35-B138-2E7BA0E9B7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D9:D30 D32:D1048576" xr:uid="{BC3D5C91-F70A-4D35-B138-2E7BA0E9B7B4}">
       <formula1>"à faire, en cours, terminé"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E9:E1048576" xr:uid="{7B1D06C2-B4CF-4A96-859D-BC6C6C6B4206}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E9:E30 E32:E1048576" xr:uid="{7B1D06C2-B4CF-4A96-859D-BC6C6C6B4206}">
       <formula1>"Echec, Réussite"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F1048576" xr:uid="{50FCA383-D294-48BA-93EB-A09C5530D8B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F30 F32:F1048576" xr:uid="{50FCA383-D294-48BA-93EB-A09C5530D8B9}">
       <formula1>"Céline, Marine, Mathilde, Alice"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C81B05-8B62-4EF2-A183-3B2A39DD4C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5A306-B2F6-4008-9F21-FC1B118EA55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
   <si>
     <t>test</t>
   </si>
@@ -228,6 +228,39 @@
   </si>
   <si>
     <t>n'en affiche que 5 car il y en a que 5. peut être mettre un message pour prévenir l'utilisateur</t>
+  </si>
+  <si>
+    <t>ouverture de l'application</t>
+  </si>
+  <si>
+    <t>s'affiche au bon endroit, que ce soit lisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en cours </t>
+  </si>
+  <si>
+    <t>s'affiche dans le quarts droit bas et tout n'est pas visible</t>
+  </si>
+  <si>
+    <t>la fenetre graphique est dans les bonnes dimension avec tout affiché</t>
+  </si>
+  <si>
+    <t>test enregistrement du graphique</t>
+  </si>
+  <si>
+    <t>MainWindow</t>
+  </si>
+  <si>
+    <t>clic droit enregistrer en png</t>
+  </si>
+  <si>
+    <t>Test boutons</t>
+  </si>
+  <si>
+    <t>clic retour menu ramène bien au menu de sélection de la catégorie</t>
+  </si>
+  <si>
+    <t>zoom en sélectionnat sur l'écran</t>
   </si>
 </sst>
 </file>
@@ -663,16 +696,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="81.21875" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1078,6 +1111,9 @@
       <c r="D31" t="s">
         <v>35</v>
       </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
       <c r="H31" t="s">
         <v>52</v>
       </c>
@@ -1278,9 +1314,84 @@
         <v>7</v>
       </c>
     </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D30 D32:D1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="terminé">
       <formula>NOT(ISERROR(SEARCH("terminé",D1)))</formula>
     </cfRule>
@@ -1291,7 +1402,7 @@
       <formula>NOT(ISERROR(SEARCH("à faire",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E30 E32:E1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Réussite">
       <formula>NOT(ISERROR(SEARCH("Réussite",E1)))</formula>
     </cfRule>
@@ -1299,7 +1410,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F30 F32:F1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>
@@ -1314,13 +1425,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D9:D30 D32:D1048576" xr:uid="{BC3D5C91-F70A-4D35-B138-2E7BA0E9B7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D9:D1048576" xr:uid="{BC3D5C91-F70A-4D35-B138-2E7BA0E9B7B4}">
       <formula1>"à faire, en cours, terminé"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E9:E30 E32:E1048576" xr:uid="{7B1D06C2-B4CF-4A96-859D-BC6C6C6B4206}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E9:E1048576" xr:uid="{7B1D06C2-B4CF-4A96-859D-BC6C6C6B4206}">
       <formula1>"Echec, Réussite"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F30 F32:F1048576" xr:uid="{50FCA383-D294-48BA-93EB-A09C5530D8B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F1048576" xr:uid="{50FCA383-D294-48BA-93EB-A09C5530D8B9}">
       <formula1>"Céline, Marine, Mathilde, Alice"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5A306-B2F6-4008-9F21-FC1B118EA55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC4C1A-6DBD-4AB5-845C-D328C5A67F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="74">
   <si>
     <t>test</t>
   </si>
@@ -182,9 +182,6 @@
     <t>en ne cochant que le type de graph</t>
   </si>
   <si>
-    <t>Echec</t>
-  </si>
-  <si>
     <t>les paramètres par défaut des menus déroulants doivent s'afficher</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>s'affiche au bon endroit, que ce soit lisible</t>
   </si>
   <si>
-    <t xml:space="preserve">en cours </t>
-  </si>
-  <si>
     <t>s'affiche dans le quarts droit bas et tout n'est pas visible</t>
   </si>
   <si>
@@ -261,13 +255,16 @@
   </si>
   <si>
     <t>zoom en sélectionnat sur l'écran</t>
+  </si>
+  <si>
+    <t>changer la couleur avec le clic droit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,13 +278,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -302,8 +312,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,6 +387,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990099"/>
       <color rgb="FFFAA972"/>
       <color rgb="FFF880AE"/>
       <color rgb="FF9AF4B4"/>
@@ -385,7 +397,6 @@
       <color rgb="FFBFFDF7"/>
       <color rgb="FFB2FCF5"/>
       <color rgb="FF8AFAEF"/>
-      <color rgb="FF04FCFC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -696,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +740,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -895,11 +906,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -1069,7 +1083,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1092,7 +1106,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1106,7 +1120,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -1115,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -1140,7 +1154,10 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1153,11 +1170,29 @@
       <c r="C34" t="s">
         <v>42</v>
       </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
@@ -1181,21 +1216,21 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" t="s">
         <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1209,58 +1244,58 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
         <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
         <v>48</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
         <v>48</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1274,7 +1309,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -1283,26 +1318,26 @@
         <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
         <v>60</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
       </c>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1316,32 +1351,44 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
         <v>64</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" t="s">
         <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1354,16 +1401,16 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>70</v>
+      <c r="B76" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
         <v>69</v>
-      </c>
-      <c r="C77" t="s">
-        <v>71</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1377,7 +1424,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1386,6 +1433,20 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
         <v>7</v>
       </c>
     </row>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC4C1A-6DBD-4AB5-845C-D328C5A67F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43F151-F767-491A-9CE5-9A59CE3486D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <t>test</t>
   </si>
@@ -258,6 +258,48 @@
   </si>
   <si>
     <t>changer la couleur avec le clic droit</t>
+  </si>
+  <si>
+    <t>BarresEmpilees</t>
+  </si>
+  <si>
+    <t>affichage graphique en barres empilées</t>
+  </si>
+  <si>
+    <t>langue, livres, exemplaires et emprunts, max 5</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>auteur, jeux, exemplaires et emprunts, max 10</t>
+  </si>
+  <si>
+    <t>genre, BD, exemplaires et emprunts, max 20</t>
+  </si>
+  <si>
+    <t>ControleurMenu</t>
+  </si>
+  <si>
+    <t>test du constructeur</t>
+  </si>
+  <si>
+    <t>test du setter du current Mode</t>
+  </si>
+  <si>
+    <t>exemplaire</t>
+  </si>
+  <si>
+    <t>exemplaire, puis emprunts</t>
+  </si>
+  <si>
+    <t>exemplaire, puis emprunts, puis both</t>
+  </si>
+  <si>
+    <t>test unitaires</t>
+  </si>
+  <si>
+    <t>test foncitonnel</t>
   </si>
 </sst>
 </file>
@@ -707,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>70</v>
       </c>
@@ -1400,12 +1442,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>67</v>
       </c>
@@ -1421,8 +1463,11 @@
       <c r="F77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>72</v>
       </c>
@@ -1435,8 +1480,11 @@
       <c r="F78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>73</v>
       </c>
@@ -1448,6 +1496,144 @@
       </c>
       <c r="F79" t="s">
         <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1657,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F1048576 G108:G111 G77:G79">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43F151-F767-491A-9CE5-9A59CE3486D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0448D1-0202-45AE-9F57-DA8E14B9F2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
   <si>
     <t>test</t>
   </si>
@@ -300,6 +300,39 @@
   </si>
   <si>
     <t>test foncitonnel</t>
+  </si>
+  <si>
+    <t>CamembertTest</t>
+  </si>
+  <si>
+    <t>langue, livres, emprunts, max 5</t>
+  </si>
+  <si>
+    <t>auteur, jeux, exemplaires, max 10</t>
+  </si>
+  <si>
+    <t>genre, BD, emprunts, max 20</t>
+  </si>
+  <si>
+    <t>HistogrammeTest</t>
+  </si>
+  <si>
+    <t>affichage graphique en camemberts</t>
+  </si>
+  <si>
+    <t>affichage graphique en histogrammes</t>
+  </si>
+  <si>
+    <t>FirstScreenController</t>
+  </si>
+  <si>
+    <t>vérification de la création du cache après le chargement</t>
+  </si>
+  <si>
+    <t>vérification du remplissage du cache</t>
+  </si>
+  <si>
+    <t>Echec</t>
   </si>
 </sst>
 </file>
@@ -328,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF990099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,9 +393,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,6 +1591,100 @@
         <v>77</v>
       </c>
     </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
         <v>80</v>
@@ -1633,6 +1767,45 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" t="s">
+        <v>98</v>
+      </c>
+      <c r="F116" t="s">
+        <v>77</v>
+      </c>
+      <c r="G116" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1657,7 +1830,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576 G108:G111 G77:G79">
+  <conditionalFormatting sqref="G108:G111 G77:G79 F1:F1048576 G115:G116">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0448D1-0202-45AE-9F57-DA8E14B9F2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93856257-6211-4434-ACD5-4652359728F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="117">
   <si>
     <t>test</t>
   </si>
@@ -233,9 +233,6 @@
     <t>s'affiche au bon endroit, que ce soit lisible</t>
   </si>
   <si>
-    <t>s'affiche dans le quarts droit bas et tout n'est pas visible</t>
-  </si>
-  <si>
     <t>la fenetre graphique est dans les bonnes dimension avec tout affiché</t>
   </si>
   <si>
@@ -333,6 +330,63 @@
   </si>
   <si>
     <t>Echec</t>
+  </si>
+  <si>
+    <t>ne s'adapte pas à la taille de l'écran dans le first screen, pas d'accès au bouton</t>
+  </si>
+  <si>
+    <t>histogramme, musique, type de doc, 5</t>
+  </si>
+  <si>
+    <t>histogramme, autre, genre, 1</t>
+  </si>
+  <si>
+    <t>histogramme, revues, auteurs, 20</t>
+  </si>
+  <si>
+    <t>clic valider met bien a jour l'affichage</t>
+  </si>
+  <si>
+    <t>camembert, jeux, auteur, 1</t>
+  </si>
+  <si>
+    <t>camemberrt, no type, langue, 5</t>
+  </si>
+  <si>
+    <t>camembert, films, type de doc, 10</t>
+  </si>
+  <si>
+    <t>camembert, BD, genre, 20</t>
+  </si>
+  <si>
+    <t>histogramme, musique, auteur, 10</t>
+  </si>
+  <si>
+    <t>histogramme, jeux, type de doc, 5</t>
+  </si>
+  <si>
+    <t>histogramme, livres, genre, 1</t>
+  </si>
+  <si>
+    <t>revues, langue, 1</t>
+  </si>
+  <si>
+    <t>autre, auteur, 5</t>
+  </si>
+  <si>
+    <t>voir image</t>
+  </si>
+  <si>
+    <t>film, auteur, 5</t>
+  </si>
+  <si>
+    <t>ne marche pas… m'en affiche 8 et variable</t>
+  </si>
+  <si>
+    <t>film, langue, 5</t>
+  </si>
+  <si>
+    <t>m'en donne 6</t>
   </si>
 </sst>
 </file>
@@ -490,6 +544,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>135576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>720090</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>129783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED410188-2CFD-4D98-8A3A-F77A8BE9DD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16363950" y="10089201"/>
+          <a:ext cx="5215890" cy="1984932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>335281</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>30227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051CA8B5-8A19-AEFB-7FE6-567E23910150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21909406" y="10657197"/>
+          <a:ext cx="5284469" cy="1946030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,14 +938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="81.21875" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1403,131 +1550,367 @@
         <v>58</v>
       </c>
     </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>61</v>
       </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C68" t="s">
         <v>64</v>
       </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>66</v>
       </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>71</v>
       </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>72</v>
       </c>
-      <c r="D78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>73</v>
-      </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
@@ -1538,34 +1921,34 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" t="s">
         <v>75</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
         <v>76</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -1574,12 +1957,12 @@
         <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -1588,20 +1971,20 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -1610,23 +1993,23 @@
         <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -1635,20 +2018,20 @@
         <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -1657,23 +2040,23 @@
         <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C104" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
         <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -1682,12 +2065,12 @@
         <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
@@ -1701,7 +2084,7 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -1713,16 +2096,16 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" t="s">
         <v>82</v>
       </c>
-      <c r="C109" t="s">
-        <v>83</v>
-      </c>
       <c r="D109" t="s">
         <v>5</v>
       </c>
@@ -1733,12 +2116,12 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
@@ -1750,34 +2133,34 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
         <v>85</v>
-      </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -1786,27 +2169,27 @@
         <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D116" t="s">
         <v>35</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +2213,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G111 G77:G79 F1:F1048576 G115:G116">
+  <conditionalFormatting sqref="G108:G111 G77:G79 G115:G116 F1:F1048576 H62">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>
@@ -1857,5 +2240,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93856257-6211-4434-ACD5-4652359728F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AACA5C-6ADD-4D9B-BAB3-C6B8FFD97205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="117">
   <si>
     <t>test</t>
   </si>
@@ -415,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF990099"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +444,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,99 +538,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>135576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>720090</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>129783</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED410188-2CFD-4D98-8A3A-F77A8BE9DD76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16363950" y="10089201"/>
-          <a:ext cx="5215890" cy="1984932"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>335281</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>179697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>30227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051CA8B5-8A19-AEFB-7FE6-567E23910150}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21909406" y="10657197"/>
-          <a:ext cx="5284469" cy="1946030"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,10 +1655,10 @@
         <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -1771,10 +1672,10 @@
         <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -1788,10 +1689,10 @@
         <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -2001,7 +1902,10 @@
         <v>89</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
       </c>
       <c r="F99" t="s">
         <v>76</v>
@@ -2048,7 +1952,10 @@
         <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
       </c>
       <c r="F104" t="s">
         <v>76</v>
@@ -2240,6 +2147,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AACA5C-6ADD-4D9B-BAB3-C6B8FFD97205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870B543E-D736-4016-A728-D937FC79BF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="118">
   <si>
     <t>test</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>m'en donne 6</t>
+  </si>
+  <si>
+    <t>vérification qu'aucune exception est lancée si le cache est vide</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1070,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1082,24 +1084,24 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1113,7 +1115,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1127,7 +1129,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1141,38 +1143,38 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1186,7 +1188,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1200,15 +1202,29 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1898,7 +1914,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="2" t="s">
+      <c r="C99" t="s">
         <v>89</v>
       </c>
       <c r="D99" t="s">
@@ -1948,7 +1964,7 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C104" s="2" t="s">
+      <c r="C104" t="s">
         <v>89</v>
       </c>
       <c r="D104" t="s">
@@ -2120,7 +2136,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G111 G77:G79 G115:G116 F1:F1048576 H62">
+  <conditionalFormatting sqref="G108:G111 G77:G79 G115:G116 H62 F1:F1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870B543E-D736-4016-A728-D937FC79BF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15401782-7FA6-48F4-9BFF-AB342E6E0CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="118">
   <si>
     <t>test</t>
   </si>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,9 +1726,6 @@
       </c>
       <c r="D68" t="s">
         <v>35</v>
-      </c>
-      <c r="E68" t="s">
-        <v>97</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15401782-7FA6-48F4-9BFF-AB342E6E0CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4685BE8-5CEF-4507-AA2D-96FA5C4007E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="125">
   <si>
     <t>test</t>
   </si>
@@ -390,6 +390,27 @@
   </si>
   <si>
     <t>vérification qu'aucune exception est lancée si le cache est vide</t>
+  </si>
+  <si>
+    <t>Parametre</t>
+  </si>
+  <si>
+    <t>Tests des getters et setters</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Type de paramètre</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total de prêts</t>
+  </si>
+  <si>
+    <t>Total d'emprunts</t>
   </si>
 </sst>
 </file>
@@ -841,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1113,7 +1134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -1155,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>32</v>
       </c>
@@ -1200,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -1228,17 +1249,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1250,9 +1280,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1264,26 +1294,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="H31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1297,7 +1324,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1308,89 +1335,18 @@
       <c r="F33" t="s">
         <v>7</v>
       </c>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1400,14 +1356,11 @@
       </c>
       <c r="F39" t="s">
         <v>7</v>
-      </c>
-      <c r="H39" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1417,31 +1370,28 @@
       </c>
       <c r="F40" t="s">
         <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1455,21 +1405,24 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1483,7 +1436,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1496,8 +1449,11 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1509,12 +1465,57 @@
         <v>7</v>
       </c>
     </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1524,11 +1525,14 @@
       </c>
       <c r="F50" t="s">
         <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1538,11 +1542,14 @@
       </c>
       <c r="F51" t="s">
         <v>7</v>
+      </c>
+      <c r="H51" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1556,21 +1563,21 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1584,18 +1591,21 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1607,54 +1617,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1668,7 +1650,7 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1678,14 +1660,11 @@
       </c>
       <c r="F62" t="s">
         <v>7</v>
-      </c>
-      <c r="H62" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1695,14 +1674,11 @@
       </c>
       <c r="F63" t="s">
         <v>7</v>
-      </c>
-      <c r="H63" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1713,30 +1689,63 @@
       <c r="F64" t="s">
         <v>7</v>
       </c>
-      <c r="H64" t="s">
-        <v>116</v>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
-      </c>
-      <c r="H68" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1750,10 +1759,10 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1767,7 +1776,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1778,72 +1787,171 @@
       <c r="F72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>86</v>
+      <c r="H72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>71</v>
       </c>
-      <c r="D78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>72</v>
       </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>74</v>
       </c>
@@ -1860,7 +1968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>77</v>
       </c>
@@ -1874,7 +1982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>78</v>
       </c>
@@ -2133,7 +2241,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G111 G77:G79 G115:G116 H62 F1:F1048576">
+  <conditionalFormatting sqref="G108:G111 G87:G89 G115:G116 H72 F1:F1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4685BE8-5CEF-4507-AA2D-96FA5C4007E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D282E5-3E90-4C9D-B68D-A374AA9204B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="126">
   <si>
     <t>test</t>
   </si>
@@ -173,9 +173,6 @@
     <t>sélection des paramètres dans l'offre</t>
   </si>
   <si>
-    <t>voir pour que la fenêtre s'affiche à la bonne taille</t>
-  </si>
-  <si>
     <t>en ne touchant rien</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>si internet coupe à 80%</t>
   </si>
   <si>
-    <t>voir si on fait la précision de on recharge pas tout, on affiche juste avec un disclaimer</t>
-  </si>
-  <si>
     <t>en ne complétant que les paramètres</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>Echec</t>
   </si>
   <si>
-    <t>ne s'adapte pas à la taille de l'écran dans le first screen, pas d'accès au bouton</t>
-  </si>
-  <si>
     <t>histogramme, musique, type de doc, 5</t>
   </si>
   <si>
@@ -374,21 +365,12 @@
     <t>autre, auteur, 5</t>
   </si>
   <si>
-    <t>voir image</t>
-  </si>
-  <si>
     <t>film, auteur, 5</t>
   </si>
   <si>
-    <t>ne marche pas… m'en affiche 8 et variable</t>
-  </si>
-  <si>
     <t>film, langue, 5</t>
   </si>
   <si>
-    <t>m'en donne 6</t>
-  </si>
-  <si>
     <t>vérification qu'aucune exception est lancée si le cache est vide</t>
   </si>
   <si>
@@ -411,6 +393,27 @@
   </si>
   <si>
     <t>Total d'emprunts</t>
+  </si>
+  <si>
+    <t>ControleurMainWindow</t>
+  </si>
+  <si>
+    <t>tests de getters et setters</t>
+  </si>
+  <si>
+    <t>current mode</t>
+  </si>
+  <si>
+    <t>Type de doc grouping</t>
+  </si>
+  <si>
+    <t>limite</t>
+  </si>
+  <si>
+    <t>type de graph</t>
+  </si>
+  <si>
+    <t>type de paramètre</t>
   </si>
 </sst>
 </file>
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1251,7 +1254,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1265,10 +1268,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1360,7 +1363,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1374,16 +1377,16 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -1416,9 +1419,6 @@
       <c r="F43" t="s">
         <v>7</v>
       </c>
-      <c r="H43" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
@@ -1453,7 +1453,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1467,24 +1467,24 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" t="s">
         <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1510,12 +1510,12 @@
         <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1527,12 +1527,12 @@
         <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1544,12 +1544,12 @@
         <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -1572,12 +1572,12 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1692,18 +1692,18 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1786,14 +1786,11 @@
       </c>
       <c r="F72" t="s">
         <v>7</v>
-      </c>
-      <c r="H72" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1803,14 +1800,11 @@
       </c>
       <c r="F73" t="s">
         <v>7</v>
-      </c>
-      <c r="H73" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1820,31 +1814,28 @@
       </c>
       <c r="F74" t="s">
         <v>7</v>
-      </c>
-      <c r="H74" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
-      </c>
-      <c r="H78" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1858,10 +1849,10 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1875,7 +1866,7 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1889,16 +1880,16 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" t="s">
         <v>66</v>
       </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
@@ -1909,12 +1900,12 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -1926,12 +1917,12 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -1943,34 +1934,34 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
         <v>74</v>
-      </c>
-      <c r="C93" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -1979,12 +1970,12 @@
         <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -1993,20 +1984,20 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -2015,12 +2006,12 @@
         <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2029,12 +2020,12 @@
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -2043,20 +2034,20 @@
         <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -2065,12 +2056,12 @@
         <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -2079,12 +2070,12 @@
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -2093,12 +2084,12 @@
         <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
@@ -2112,7 +2103,7 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -2124,15 +2115,15 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -2144,29 +2135,29 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
         <v>83</v>
-      </c>
-      <c r="D110" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -2178,17 +2169,17 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -2197,27 +2188,119 @@
         <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D116" t="s">
         <v>35</v>
       </c>
       <c r="E116" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F116" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D282E5-3E90-4C9D-B68D-A374AA9204B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD66B32-59E6-4D1D-9329-615B8AD0B04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="130">
   <si>
     <t>test</t>
   </si>
@@ -414,6 +414,18 @@
   </si>
   <si>
     <t>type de paramètre</t>
+  </si>
+  <si>
+    <t>test de l'initialisation de la vue</t>
+  </si>
+  <si>
+    <t>test du pop-up de retry</t>
+  </si>
+  <si>
+    <t>test que la barre de progression est bien pleine avant de se fermer</t>
+  </si>
+  <si>
+    <t>test que le programme s'arrête bien quand le wi-fi se coupe et se relance après</t>
   </si>
 </sst>
 </file>
@@ -863,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,7 +1578,10 @@
         <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1695,7 +1710,13 @@
         <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
       </c>
       <c r="H65" t="s">
         <v>60</v>
@@ -2301,6 +2322,58 @@
       </c>
       <c r="F124" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD66B32-59E6-4D1D-9329-615B8AD0B04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B3EED1-555C-43CF-9145-E6F1356C29C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="134">
   <si>
     <t>test</t>
   </si>
@@ -143,9 +143,6 @@
     <t>langue, no_type, emprunts, 0</t>
   </si>
   <si>
-    <t>en cours</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>vérification du remplissage du cache</t>
   </si>
   <si>
-    <t>Echec</t>
-  </si>
-  <si>
     <t>histogramme, musique, type de doc, 5</t>
   </si>
   <si>
@@ -426,6 +420,24 @@
   </si>
   <si>
     <t>test que le programme s'arrête bien quand le wi-fi se coupe et se relance après</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>vérification que le clic du bouton est bien pris en compte</t>
+  </si>
+  <si>
+    <t>vérification de l'initialisation de la vue</t>
+  </si>
+  <si>
+    <t>vérification de l'initialisation de la demande</t>
+  </si>
+  <si>
+    <t>vérification de la fenêtre pour l'affichage de la comparaison</t>
+  </si>
+  <si>
+    <t>Alice</t>
   </si>
 </sst>
 </file>
@@ -875,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1118,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1266,7 +1278,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1280,10 +1292,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1297,7 +1309,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1311,7 +1323,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1325,7 +1337,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1339,7 +1351,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1353,15 +1365,15 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
         <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1375,7 +1387,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1389,7 +1401,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1403,10 +1415,10 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1420,7 +1432,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1434,7 +1446,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1448,7 +1460,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1462,10 +1474,10 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
         <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1479,24 +1491,24 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" t="s">
         <v>46</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1510,7 +1522,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1522,12 +1534,12 @@
         <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1539,12 +1551,12 @@
         <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1556,12 +1568,12 @@
         <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1575,24 +1587,24 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
         <v>55</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1606,7 +1618,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1620,7 +1632,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1634,10 +1646,10 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1651,7 +1663,7 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1665,7 +1677,7 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1679,7 +1691,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1693,7 +1705,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1707,7 +1719,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1719,12 +1731,12 @@
         <v>7</v>
       </c>
       <c r="H65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1738,7 +1750,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1752,7 +1764,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1766,7 +1778,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1780,10 +1792,10 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1797,7 +1809,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1811,7 +1823,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1825,7 +1837,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1839,10 +1851,10 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
         <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>62</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1856,7 +1868,7 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1870,10 +1882,10 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" t="s">
         <v>67</v>
-      </c>
-      <c r="C81" t="s">
-        <v>68</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1887,7 +1899,7 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1901,15 +1913,15 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -1921,12 +1933,12 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -1938,52 +1950,66 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D89" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="1" t="s">
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+      <c r="C94" t="s">
         <v>72</v>
       </c>
-      <c r="C93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
-        <v>75</v>
-      </c>
       <c r="D94" t="s">
         <v>5</v>
       </c>
@@ -1991,12 +2017,12 @@
         <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -2005,35 +2031,35 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>87</v>
-      </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
@@ -2041,48 +2067,48 @@
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D100" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" t="s">
-        <v>86</v>
-      </c>
-      <c r="D103" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -2091,12 +2117,12 @@
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -2105,26 +2131,26 @@
         <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>7</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>78</v>
+      <c r="B108" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -2134,35 +2160,32 @@
       </c>
       <c r="F108" t="s">
         <v>7</v>
-      </c>
-      <c r="G108" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" t="s">
         <v>79</v>
       </c>
-      <c r="C109" t="s">
-        <v>80</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
-        <v>81</v>
-      </c>
       <c r="D110" t="s">
         <v>5</v>
       </c>
@@ -2173,90 +2196,90 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
         <v>82</v>
       </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B114" s="1" t="s">
-        <v>92</v>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>93</v>
-      </c>
-      <c r="D115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" t="s">
-        <v>83</v>
+      <c r="B115" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="F116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B118" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>73</v>
+      </c>
+      <c r="G117" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>78</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
+      <c r="B119" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2269,8 +2292,11 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>118</v>
+      </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2284,7 +2310,7 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2298,7 +2324,7 @@
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -2312,7 +2338,7 @@
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
@@ -2324,28 +2350,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="1" t="s">
-        <v>92</v>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>126</v>
-      </c>
-      <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>74</v>
+      <c r="B127" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
         <v>5</v>
@@ -2354,31 +2380,78 @@
         <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
         <v>129</v>
       </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>74</v>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D139:D1048576 D93:D135 D1:D91">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="terminé">
       <formula>NOT(ISERROR(SEARCH("terminé",D1)))</formula>
     </cfRule>
@@ -2389,7 +2462,7 @@
       <formula>NOT(ISERROR(SEARCH("à faire",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E139:E1048576 E93:E135 E1:E91">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Réussite">
       <formula>NOT(ISERROR(SEARCH("Réussite",E1)))</formula>
     </cfRule>
@@ -2397,7 +2470,7 @@
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G111 G87:G89 G115:G116 H72 F1:F1048576">
+  <conditionalFormatting sqref="G109:G112 G87:G89 G116:G117 H72 F1:F91 F139:F1048576 F93:F135">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>
@@ -2412,13 +2485,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D9:D1048576" xr:uid="{BC3D5C91-F70A-4D35-B138-2E7BA0E9B7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D139:D1048576 D93:D135 D9:D91" xr:uid="{BC3D5C91-F70A-4D35-B138-2E7BA0E9B7B4}">
       <formula1>"à faire, en cours, terminé"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E9:E1048576" xr:uid="{7B1D06C2-B4CF-4A96-859D-BC6C6C6B4206}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E139:E1048576 E93:E135 E9:E91" xr:uid="{7B1D06C2-B4CF-4A96-859D-BC6C6C6B4206}">
       <formula1>"Echec, Réussite"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F1048576" xr:uid="{50FCA383-D294-48BA-93EB-A09C5530D8B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F91 F93:F135 F139:F1048576" xr:uid="{50FCA383-D294-48BA-93EB-A09C5530D8B9}">
       <formula1>"Céline, Marine, Mathilde, Alice"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cahier_de_tests.xlsx
+++ b/cahier_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\Documents\Eseo\I2\big data\analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B3EED1-555C-43CF-9145-E6F1356C29C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1605470F-EE60-4D82-ACC5-DB31A24223B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F340074-39D8-4E28-9901-AEEF3A68D0CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="133">
   <si>
     <t>test</t>
   </si>
@@ -176,9 +176,6 @@
     <t>en ne cochant que le type de graph</t>
   </si>
   <si>
-    <t>les paramètres par défaut des menus déroulants doivent s'afficher</t>
-  </si>
-  <si>
     <t>si internet coupe à 10%</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>histogramme, BD, langue, 10</t>
   </si>
   <si>
-    <t>pas d'affichage du nombre pour le français, difficulté de lecture des chiffres pour les grands nombres car se collent</t>
-  </si>
-  <si>
     <t>sélection des paramètres dans la demande</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>histogramme, BD, langue, 20</t>
   </si>
   <si>
-    <t>n'en affiche que 5 car il y en a que 5. peut être mettre un message pour prévenir l'utilisateur</t>
-  </si>
-  <si>
     <t>ouverture de l'application</t>
   </si>
   <si>
@@ -438,6 +429,12 @@
   </si>
   <si>
     <t>Alice</t>
+  </si>
+  <si>
+    <t>test unitaire</t>
+  </si>
+  <si>
+    <t>test fonctionnel</t>
   </si>
 </sst>
 </file>
@@ -499,7 +496,287 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA6EEFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AF4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF880AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAA972"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -887,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6668DA5-64F3-44E4-9C47-D54DE3D86EE4}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +1176,7 @@
     <col min="3" max="3" width="61.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -919,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,8 +1209,11 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -949,8 +1229,11 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -966,8 +1249,11 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -980,8 +1266,11 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -994,8 +1283,11 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1300,11 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -1022,8 +1317,11 @@
       <c r="F8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1337,11 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -1053,8 +1354,11 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1067,8 +1371,11 @@
       <c r="F11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1084,8 +1391,11 @@
       <c r="F12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1098,8 +1408,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1115,10 +1428,13 @@
       <c r="F15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1129,8 +1445,11 @@
       <c r="F16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1143,8 +1462,11 @@
       <c r="F17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1160,8 +1482,11 @@
       <c r="F18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -1174,8 +1499,11 @@
       <c r="F19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>28</v>
       </c>
@@ -1188,8 +1516,11 @@
       <c r="F20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -1202,8 +1533,11 @@
       <c r="F21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -1216,8 +1550,11 @@
       <c r="F22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1233,8 +1570,11 @@
       <c r="F23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>32</v>
       </c>
@@ -1247,8 +1587,11 @@
       <c r="F24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -1261,8 +1604,11 @@
       <c r="F25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -1275,84 +1621,102 @@
       <c r="F26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>111</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
@@ -1362,13 +1726,16 @@
       <c r="F33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -1384,25 +1751,31 @@
       <c r="F39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
@@ -1412,8 +1785,11 @@
       <c r="F41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -1429,8 +1805,11 @@
       <c r="F42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>40</v>
       </c>
@@ -1443,8 +1822,11 @@
       <c r="F43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -1457,8 +1839,11 @@
       <c r="F44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -1471,8 +1856,11 @@
       <c r="F45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -1488,8 +1876,11 @@
       <c r="F46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>45</v>
       </c>
@@ -1502,151 +1893,166 @@
       <c r="F47" t="s">
         <v>7</v>
       </c>
-      <c r="H47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
         <v>51</v>
       </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
         <v>53</v>
       </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>54</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>44</v>
@@ -1660,216 +2066,258 @@
       <c r="F60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>98</v>
       </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
         <v>99</v>
       </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
         <v>100</v>
       </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>101</v>
       </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>57</v>
       </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>62</v>
-      </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
@@ -1878,14 +2326,17 @@
       </c>
       <c r="F79" t="s">
         <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1895,11 +2346,14 @@
       </c>
       <c r="F81" t="s">
         <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1909,19 +2363,22 @@
       </c>
       <c r="F82" t="s">
         <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -1933,12 +2390,12 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -1950,12 +2407,12 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -1967,12 +2424,12 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -1981,12 +2438,15 @@
         <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="G90" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -1995,20 +2455,23 @@
         <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="G91" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -2017,12 +2480,12 @@
         <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -2031,12 +2494,12 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
@@ -2045,20 +2508,20 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2067,12 +2530,12 @@
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -2081,12 +2544,12 @@
         <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2095,20 +2558,20 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -2117,12 +2580,12 @@
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -2131,12 +2594,12 @@
         <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2145,12 +2608,12 @@
         <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -2164,7 +2627,7 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -2176,32 +2639,32 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
         <v>79</v>
-      </c>
-      <c r="D110" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -2213,12 +2676,12 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -2230,17 +2693,17 @@
         <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -2249,15 +2712,15 @@
         <v>6</v>
       </c>
       <c r="F116" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2266,20 +2729,20 @@
         <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G117" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2289,14 +2752,17 @@
       </c>
       <c r="F120" t="s">
         <v>7</v>
+      </c>
+      <c r="G120" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2306,11 +2772,14 @@
       </c>
       <c r="F121" t="s">
         <v>7</v>
+      </c>
+      <c r="G121" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2320,11 +2789,14 @@
       </c>
       <c r="F122" t="s">
         <v>7</v>
+      </c>
+      <c r="G122" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -2334,11 +2806,14 @@
       </c>
       <c r="F123" t="s">
         <v>7</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
@@ -2348,11 +2823,14 @@
       </c>
       <c r="F124" t="s">
         <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2362,83 +2840,98 @@
       </c>
       <c r="F125" t="s">
         <v>7</v>
+      </c>
+      <c r="G125" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>70</v>
+      </c>
+      <c r="G128" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>70</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
         <v>124</v>
       </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>70</v>
+      </c>
+      <c r="G131" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B133" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>70</v>
+      </c>
+      <c r="G134" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
         <v>127</v>
       </c>
-      <c r="D131" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>129</v>
-      </c>
-      <c r="D134" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>130</v>
-      </c>
       <c r="D135" t="s">
         <v>5</v>
       </c>
@@ -2446,42 +2939,115 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="G135" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D139:D1048576 D93:D135 D1:D91">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="terminé">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="terminé">
       <formula>NOT(ISERROR(SEARCH("terminé",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="en cours">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="en cours">
       <formula>NOT(ISERROR(SEARCH("en cours",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="à faire">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="à faire">
       <formula>NOT(ISERROR(SEARCH("à faire",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139:E1048576 E93:E135 E1:E91">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Réussite">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Réussite">
       <formula>NOT(ISERROR(SEARCH("Réussite",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Echec">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Echec">
       <formula>NOT(ISERROR(SEARCH("Echec",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G109:G112 G87:G89 G116:G117 H72 F1:F91 F139:F1048576 F93:F135">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
+  <conditionalFormatting sqref="G109:G112 H72 F1:F91 F139:F1048576 F93:F135 G87:G91 G116:G135">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Mathilde">
       <formula>NOT(ISERROR(SEARCH("Mathilde",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Marine">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Marine">
       <formula>NOT(ISERROR(SEARCH("Marine",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Alice">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Alice">
       <formula>NOT(ISERROR(SEARCH("Alice",F1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Céline">
+      <formula>NOT(ISERROR(SEARCH("Céline",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:G82">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Mathilde">
+      <formula>NOT(ISERROR(SEARCH("Mathilde",G78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Marine">
+      <formula>NOT(ISERROR(SEARCH("Marine",G78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Alice">
+      <formula>NOT(ISERROR(SEARCH("Alice",G78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Céline">
+      <formula>NOT(ISERROR(SEARCH("Céline",G78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G74">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Mathilde">
+      <formula>NOT(ISERROR(SEARCH("Mathilde",G39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Marine">
+      <formula>NOT(ISERROR(SEARCH("Marine",G39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Alice">
+      <formula>NOT(ISERROR(SEARCH("Alice",G39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Céline">
+      <formula>NOT(ISERROR(SEARCH("Céline",G39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G33">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Mathilde">
+      <formula>NOT(ISERROR(SEARCH("Mathilde",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Marine">
+      <formula>NOT(ISERROR(SEARCH("Marine",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Alice">
+      <formula>NOT(ISERROR(SEARCH("Alice",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Céline">
+      <formula>NOT(ISERROR(SEARCH("Céline",G28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G26">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Mathilde">
+      <formula>NOT(ISERROR(SEARCH("Mathilde",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Marine">
+      <formula>NOT(ISERROR(SEARCH("Marine",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Alice">
+      <formula>NOT(ISERROR(SEARCH("Alice",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Céline">
+      <formula>NOT(ISERROR(SEARCH("Céline",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Mathilde">
+      <formula>NOT(ISERROR(SEARCH("Mathilde",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Marine">
+      <formula>NOT(ISERROR(SEARCH("Marine",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Alice">
+      <formula>NOT(ISERROR(SEARCH("Alice",G2)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Céline">
-      <formula>NOT(ISERROR(SEARCH("Céline",F1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Céline",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
